--- a/Resources/Data/indoor positioning.xlsx
+++ b/Resources/Data/indoor positioning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="15255" windowHeight="5865" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="15255" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -249,7 +249,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -804,14 +804,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5839"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="D366" sqref="D366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
